--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_1_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_1_square_01_.xlsx
@@ -581,69 +581,73 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.16000000000003</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001291383268505752</v>
+        <v>0.005909369219200378</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001291383268505752</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>0.005909369219200378</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4879686802983292</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4879686802983292</v>
+      </c>
       <c r="L2" t="n">
-        <v>63.75774493795932</v>
+        <v>36.18742926255743</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[30.988126345361593, 96.52736353055704]</t>
+          <t>[11.380987989867677, 60.99387053524718]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.000300104876271412</v>
+        <v>0.005191697364629544</v>
       </c>
       <c r="O2" t="n">
-        <v>0.000300104876271412</v>
+        <v>0.005191697364629544</v>
       </c>
       <c r="P2" t="n">
-        <v>1.415131825941348</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.7861843477451931, 2.0440793041375027]</t>
+          <t>[0.5849211547224238, 2.446605690183042]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.294577757657514e-05</v>
+        <v>0.002010056663019233</v>
       </c>
       <c r="S2" t="n">
-        <v>4.294577757657514e-05</v>
+        <v>0.002010056663019233</v>
       </c>
       <c r="T2" t="n">
-        <v>82.85191784875016</v>
+        <v>56.27270192096265</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[64.12098188647357, 101.58285381102675]</t>
+          <t>[41.59607485235995, 70.94932898956536]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.704636432009465e-11</v>
+        <v>8.76527295190499e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>1.704636432009465e-11</v>
+        <v>8.76527295190499e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>17.16900900900903</v>
+        <v>16.69269269269269</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.95079079079081</v>
+        <v>13.43343343343343</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.38722722722725</v>
+        <v>19.95195195195195</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +671,73 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.16000000000003</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.263963125164302e-06</v>
+        <v>0.001888399901640248</v>
       </c>
       <c r="I3" t="n">
-        <v>1.263963125164302e-06</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0.001888399901640248</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0007030343140426165</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0007030343140426165</v>
+      </c>
       <c r="L3" t="n">
-        <v>55.89399629483034</v>
+        <v>38.86707355554678</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[31.95922289333579, 79.82876969632488]</t>
+          <t>[12.675312544068916, 65.05883456702465]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.45198486288345e-05</v>
+        <v>0.004525458792056902</v>
       </c>
       <c r="O3" t="n">
-        <v>2.45198486288345e-05</v>
+        <v>0.004525458792056902</v>
       </c>
       <c r="P3" t="n">
-        <v>1.956026657190041</v>
+        <v>2.056658253701426</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.5031844728888082, 2.408868841491273]</t>
+          <t>[1.3270791789938858, 2.7862373284089657]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.379496682498484e-11</v>
+        <v>9.373189608918864e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>3.379496682498484e-11</v>
+        <v>9.373189608918864e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>60.53999805432081</v>
+        <v>47.87919110330442</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.66143853123118, 73.41855757741044]</t>
+          <t>[33.37982171385194, 62.378560492756904]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.80153678033912e-12</v>
+        <v>3.362543821161523e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>2.80153678033912e-12</v>
+        <v>3.362543821161523e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>15.26134134134136</v>
+        <v>14.7987987987988</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.66422422422424</v>
+        <v>12.24424424424424</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.85845845845848</v>
+        <v>17.35335335335336</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +761,73 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.16000000000003</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002000180428468612</v>
+        <v>0.001912418536416105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002000180428468612</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>0.001912418536416105</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.009680995536788806</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.009680995536788806</v>
+      </c>
       <c r="L4" t="n">
-        <v>46.32530395329995</v>
+        <v>37.50472895389199</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[19.361822368975602, 73.2887855376243]</t>
+          <t>[11.162759720584368, 63.846698187199614]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001192345166757702</v>
+        <v>0.006273080906055384</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001192345166757702</v>
+        <v>0.006273080906055384</v>
       </c>
       <c r="P4" t="n">
-        <v>2.132131951084964</v>
+        <v>2.572395185822273</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.5409213215805782, 2.7233425805893496]</t>
+          <t>[1.8805529598065034, 3.2642374118380424]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.148662080538656e-09</v>
+        <v>1.931151460965452e-09</v>
       </c>
       <c r="S4" t="n">
-        <v>4.148662080538656e-09</v>
+        <v>1.931151460965452e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>58.13423042810754</v>
+        <v>56.1261500574043</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.641485247715366, 72.6269756084997]</t>
+          <t>[41.655275576280374, 70.59702453852822]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.645170749104864e-10</v>
+        <v>6.485363357455753e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>2.645170749104864e-10</v>
+        <v>6.485363357455753e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>14.64024024024026</v>
+        <v>12.99299299299299</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.55511511511513</v>
+        <v>10.57057057057057</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.72536536536539</v>
+        <v>15.41541541541541</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +851,73 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.16000000000003</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.955968307722824e-05</v>
+        <v>0.0003410248289880125</v>
       </c>
       <c r="I5" t="n">
-        <v>3.955968307722824e-05</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>0.0003410248289880125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5845104513583419</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5845104513583419</v>
+      </c>
       <c r="L5" t="n">
-        <v>51.40482464888633</v>
+        <v>42.62279883054553</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[26.841554849420902, 75.96809444835175]</t>
+          <t>[19.27329027017754, 65.97230739091353]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001186998016122764</v>
+        <v>0.000627685800024036</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001186998016122764</v>
+        <v>0.000627685800024036</v>
       </c>
       <c r="P5" t="n">
-        <v>3.012658420559581</v>
+        <v>-3.018947895341543</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.4214477910551957, 3.6038690500639663]</t>
+          <t>[-3.723369070921236, -2.31452671976185]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.289279876777073e-13</v>
+        <v>4.225197969276451e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>2.289279876777073e-13</v>
+        <v>4.225197969276451e-11</v>
       </c>
       <c r="T5" t="n">
-        <v>71.72445965798019</v>
+        <v>58.42106281062149</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[56.76183477468756, 86.68708454127282]</t>
+          <t>[44.134743654201415, 72.70738196704157]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.544986361068368e-12</v>
+        <v>1.565549911930475e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>1.544986361068368e-12</v>
+        <v>1.565549911930475e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>11.53473473473475</v>
+        <v>10.57057057057057</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.44960960960962</v>
+        <v>8.104104104104106</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.61985985985988</v>
+        <v>13.03703703703703</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +941,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.77000000000043</v>
+        <v>24.69000000000042</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008452269531252776</v>
+        <v>3.982212707243082e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008452269531252776</v>
+        <v>3.982212707243082e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>40.55363731161886</v>
+        <v>52.73830807943239</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[12.52728285420234, 68.57999176903537]</t>
+          <t>[26.86213817890777, 78.614477979957]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.005535165563048894</v>
+        <v>0.0001680132856138883</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005535165563048894</v>
+        <v>0.0001680132856138883</v>
       </c>
       <c r="P6" t="n">
-        <v>3.08813211794312</v>
+        <v>2.899447874484274</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.1069740519571187, 4.069290183929121]</t>
+          <t>[2.320816194543811, 3.4780795544247365]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>9.777345955086503e-08</v>
+        <v>3.894662370385049e-13</v>
       </c>
       <c r="S6" t="n">
-        <v>9.777345955086503e-08</v>
+        <v>3.894662370385049e-13</v>
       </c>
       <c r="T6" t="n">
-        <v>58.3966091709727</v>
+        <v>71.31001424970292</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.961346904757356, 75.83187143718803]</t>
+          <t>[56.62143089384324, 85.9985976055626]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.42882205458983e-08</v>
+        <v>1.045608044591972e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>2.42882205458983e-08</v>
+        <v>1.045608044591972e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>12.59575575575598</v>
+        <v>13.29651651651674</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.72776776776792</v>
+        <v>11.02276276276295</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.46374374374403</v>
+        <v>15.57027027027054</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1027,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.77000000000043</v>
+        <v>24.69000000000042</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008361408319969565</v>
+        <v>0.0001319474139096499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008361408319969565</v>
+        <v>0.0001319474139096499</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>42.03684629712174</v>
+        <v>52.52700522177441</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[7.739379175146951, 76.33431341909653]</t>
+          <t>[24.86500337313943, 80.18900707040939]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.01742853271610967</v>
+        <v>0.0004007714991238753</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01742853271610967</v>
+        <v>0.0004007714991238753</v>
       </c>
       <c r="P7" t="n">
-        <v>2.622710984077965</v>
+        <v>2.974921571867812</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.7296055650394262, 3.5158164031165047]</t>
+          <t>[2.371131992799503, 3.5787111509361207]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.179376782431632e-07</v>
+        <v>6.608047442568932e-13</v>
       </c>
       <c r="S7" t="n">
-        <v>4.179376782431632e-07</v>
+        <v>6.608047442568932e-13</v>
       </c>
       <c r="T7" t="n">
-        <v>68.27017535436923</v>
+        <v>59.50530416724568</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.006233785739084, 86.53411692299937]</t>
+          <t>[43.7244227401106, 75.28618559438075]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.687169959296853e-09</v>
+        <v>1.349655720517262e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.687169959296853e-09</v>
+        <v>1.349655720517262e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>14.43057057057082</v>
+        <v>12.99993993994016</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.9097097097099</v>
+        <v>10.62732732732751</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.95143143143174</v>
+        <v>15.37255255255282</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1113,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.77000000000043</v>
+        <v>24.69000000000042</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.252584880657604e-05</v>
+        <v>0.003328840570210101</v>
       </c>
       <c r="I8" t="n">
-        <v>2.252584880657604e-05</v>
+        <v>0.003328840570210101</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>50.77626328098086</v>
+        <v>42.30006773236263</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[25.53126724369531, 76.0212593182664]</t>
+          <t>[13.234835407829038, 71.36530005689623]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0001989361183607485</v>
+        <v>0.005289701498068622</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001989361183607485</v>
+        <v>0.005289701498068622</v>
       </c>
       <c r="P8" t="n">
-        <v>2.786237328408966</v>
+        <v>2.912026824048196</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.245342497160273, 3.3271321596576584]</t>
+          <t>[2.094395102393195, 3.729658545703198]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.620925615952729e-13</v>
+        <v>5.642311950992962e-09</v>
       </c>
       <c r="S8" t="n">
-        <v>1.620925615952729e-13</v>
+        <v>5.642311950992962e-09</v>
       </c>
       <c r="T8" t="n">
-        <v>62.99966200983111</v>
+        <v>58.37279476423916</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.307445138353074, 76.69187888130914]</t>
+          <t>[41.82785391741224, 74.91773561106608]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.337286168582978e-12</v>
+        <v>7.096496057457102e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>5.337286168582978e-12</v>
+        <v>7.096496057457102e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>13.78590590590615</v>
+        <v>13.24708708708731</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.65355355355376</v>
+        <v>10.03417417417434</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.91825825825853</v>
+        <v>16.46000000000028</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1199,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.77000000000043</v>
+        <v>24.69000000000042</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001720047995669161</v>
+        <v>8.621976173572854e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001720047995669161</v>
+        <v>8.621976173572854e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>42.488483590073</v>
+        <v>57.27743595286707</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[17.441322283999156, 67.53564489614683]</t>
+          <t>[28.79859785170143, 85.7562740540327]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.001354841041007138</v>
+        <v>0.000199076144605792</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001354841041007138</v>
+        <v>0.000199076144605792</v>
       </c>
       <c r="P9" t="n">
-        <v>2.446605690183042</v>
+        <v>2.333395144107734</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.8679740102425795, 3.025237370123505]</t>
+          <t>[1.8553950606786556, 2.8113952275368126]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.187850232208802e-11</v>
+        <v>8.817391261572993e-13</v>
       </c>
       <c r="S9" t="n">
-        <v>6.187850232208802e-11</v>
+        <v>8.817391261572993e-13</v>
       </c>
       <c r="T9" t="n">
-        <v>58.52662071054206</v>
+        <v>75.45295088164715</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.33701156320194, 71.71622985788218]</t>
+          <t>[60.61737816796055, 90.28852359533376]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.554290030014727e-11</v>
+        <v>2.433608869978343e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.554290030014727e-11</v>
+        <v>2.433608869978343e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>15.12482482482509</v>
+        <v>15.52084084084111</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.84370370370393</v>
+        <v>13.64252252252275</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.40594594594625</v>
+        <v>17.39915915915946</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1285,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.77000000000043</v>
+        <v>24.69000000000042</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006976555235385096</v>
+        <v>2.278237908248659e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0006976555235385096</v>
+        <v>2.278237908248659e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>43.18137934553864</v>
+        <v>60.48600577093592</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[13.465008554138223, 72.89775013693905]</t>
+          <t>[30.244837739410315, 90.72717380246152]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.005354163743375162</v>
+        <v>0.0002134816420458208</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005354163743375162</v>
+        <v>0.0002134816420458208</v>
       </c>
       <c r="P10" t="n">
-        <v>2.396289891927349</v>
+        <v>2.119553001521041</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.7799213632951174, 3.012658420559581]</t>
+          <t>[1.6038160694001933, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>6.093472393331467e-10</v>
+        <v>1.364968138517497e-10</v>
       </c>
       <c r="S10" t="n">
-        <v>6.093472393331467e-10</v>
+        <v>1.364968138517497e-10</v>
       </c>
       <c r="T10" t="n">
-        <v>64.67411549098149</v>
+        <v>63.16950542219755</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.78231800521182, 79.56591297675116]</t>
+          <t>[46.545555347638434, 79.79345549675665]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.893507655699068e-11</v>
+        <v>1.10643516570974e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>2.893507655699068e-11</v>
+        <v>1.10643516570974e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>15.32318318318345</v>
+        <v>16.36114114114142</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.89329329329352</v>
+        <v>14.33453453453478</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.75307307307338</v>
+        <v>18.38774774774807</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1371,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.77000000000043</v>
+        <v>24.69000000000042</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.008719036942487102</v>
+        <v>0.0007955063531688289</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008719036942487102</v>
+        <v>0.0007955063531688289</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>38.01951854386454</v>
+        <v>53.13673858752052</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[7.219218792007439, 68.81981829572163]</t>
+          <t>[16.94355972694818, 89.32991744809286]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.01669113178652459</v>
+        <v>0.00493396630749543</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01669113178652459</v>
+        <v>0.00493396630749543</v>
       </c>
       <c r="P11" t="n">
-        <v>2.006342455445734</v>
+        <v>2.207605648468503</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.0755001877154244, 2.937184723176043]</t>
+          <t>[1.5786581702723481, 2.8365531266646578]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>7.939055540218121e-05</v>
+        <v>8.03804067750491e-09</v>
       </c>
       <c r="S11" t="n">
-        <v>7.939055540218121e-05</v>
+        <v>8.03804067750491e-09</v>
       </c>
       <c r="T11" t="n">
-        <v>57.64538604008432</v>
+        <v>72.22239529531593</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[40.754169125366076, 74.53660295480256]</t>
+          <t>[53.598480825769684, 90.84630976486218]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.56926376337907e-08</v>
+        <v>6.512732575458813e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>1.56926376337907e-08</v>
+        <v>6.512732575458813e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>16.86046046046076</v>
+        <v>16.01513513513541</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.19083083083106</v>
+        <v>13.5436636636639</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.53009009009045</v>
+        <v>18.48660660660692</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1457,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.77000000000043</v>
+        <v>24.69000000000042</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007878656035322784</v>
+        <v>5.738323242332477e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0007878656035322784</v>
+        <v>5.738323242332477e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>44.10304685081541</v>
+        <v>51.62411878688288</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[16.516374113022977, 71.68971958860784]</t>
+          <t>[22.58158684765587, 80.66665072610989]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.002381977349052766</v>
+        <v>0.0008374991573700807</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002381977349052766</v>
+        <v>0.0008374991573700807</v>
       </c>
       <c r="P12" t="n">
-        <v>1.792500312859041</v>
+        <v>2.119553001521041</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.0503422885875775, 2.534658337130505]</t>
+          <t>[1.5660792207084242, 2.6730267823336575]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.442051240574393e-05</v>
+        <v>9.045129090168302e-10</v>
       </c>
       <c r="S12" t="n">
-        <v>1.442051240574393e-05</v>
+        <v>9.045129090168302e-10</v>
       </c>
       <c r="T12" t="n">
-        <v>56.80802670189743</v>
+        <v>47.9809949382835</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[41.260356087378455, 72.35569731641641]</t>
+          <t>[32.968799208525056, 62.99319066804195]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.998554737843051e-09</v>
+        <v>6.987197642693843e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>2.998554737843051e-09</v>
+        <v>6.987197642693843e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>17.70348348348379</v>
+        <v>16.36114114114142</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.77769769769795</v>
+        <v>14.18624624624649</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.62926926926963</v>
+        <v>18.53603603603636</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1543,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.77000000000043</v>
+        <v>24.69000000000042</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.14060197802246e-05</v>
+        <v>7.42185693198838e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>1.14060197802246e-05</v>
+        <v>7.42185693198838e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>51.66973488742605</v>
+        <v>46.56776880799469</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[29.926964805146994, 73.41250496970511]</t>
+          <t>[25.625217327387844, 67.51032028860153]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.867148105039185e-05</v>
+        <v>5.1022483644525e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.867148105039185e-05</v>
+        <v>5.1022483644525e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>1.553500271144502</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.0251843894597332, 2.081816152829271]</t>
+          <t>[0.9748685912040393, 2.207605648468503]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.069982066923217e-07</v>
+        <v>4.718438163964223e-06</v>
       </c>
       <c r="S13" t="n">
-        <v>4.069982066923217e-07</v>
+        <v>4.718438163964223e-06</v>
       </c>
       <c r="T13" t="n">
-        <v>64.37482119997814</v>
+        <v>65.75273610225001</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[50.64608281761652, 78.10355958233977]</t>
+          <t>[51.94221420904762, 79.5632579954524]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.022471162239526e-12</v>
+        <v>1.902700219602593e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>3.022471162239526e-12</v>
+        <v>1.902700219602593e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>18.64568568568601</v>
+        <v>18.43717717717749</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.56292292292322</v>
+        <v>16.01513513513541</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.72844844844881</v>
+        <v>20.85921921921958</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1629,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.77000000000043</v>
+        <v>24.69000000000042</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001213600857239094</v>
+        <v>0.002303742582019264</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001213600857239094</v>
+        <v>0.002303742582019264</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>38.89427941736025</v>
+        <v>38.2934716691858</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[16.590229477098134, 61.198329357622356]</t>
+          <t>[12.74280790406393, 63.84413543430767]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.001023912226403079</v>
+        <v>0.004172090758335578</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001023912226403079</v>
+        <v>0.004172090758335578</v>
       </c>
       <c r="P14" t="n">
-        <v>1.641552918091964</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.8616580451287321, 2.421447791055196]</t>
+          <t>[0.9497106920761933, 2.559816236258351]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.0001098720069627745</v>
+        <v>6.785998617564459e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0001098720069627745</v>
+        <v>6.785998617564459e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>61.08543156801713</v>
+        <v>61.4867125652187</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.85102879564944, 75.31983434038482]</t>
+          <t>[46.67293094267262, 76.30049418776477]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.069122816474646e-11</v>
+        <v>1.038267249953151e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>4.069122816474646e-11</v>
+        <v>1.038267249953151e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>18.29855855855888</v>
+        <v>17.7945945945949</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.22400400400427</v>
+        <v>14.63111111111136</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.37311311311349</v>
+        <v>20.95807807807844</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_1_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_1_square_01_.xlsx
@@ -581,73 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005909369219200378</v>
+        <v>4.332368791382102e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005909369219200378</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4879686802983292</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.4879686802983292</v>
-      </c>
+        <v>4.332368791382102e-05</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>36.18742926255743</v>
+        <v>62.30033585944071</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[11.380987989867677, 60.99387053524718]</t>
+          <t>[34.00310470801156, 90.59756701086985]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.005191697364629544</v>
+        <v>5.885542958572465e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005191697364629544</v>
+        <v>5.885542958572465e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.515763422452733</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.5849211547224238, 2.446605690183042]</t>
+          <t>[1.1132370364071944, 2.19502669890458]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.002010056663019233</v>
+        <v>1.810010050729005e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002010056663019233</v>
+        <v>1.810010050729005e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>56.27270192096265</v>
+        <v>72.89743722978326</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[41.59607485235995, 70.94932898956536]</t>
+          <t>[55.6625010549927, 90.13237340457383]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>8.76527295190499e-10</v>
+        <v>6.131650742702277e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>8.76527295190499e-10</v>
+        <v>6.131650742702277e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>16.69269269269269</v>
+        <v>16.723923923924</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.43343343343343</v>
+        <v>14.76976976976984</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.95195195195195</v>
+        <v>18.67807807807817</v>
       </c>
     </row>
     <row r="3">
@@ -671,73 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001888399901640248</v>
+        <v>0.0001489824472092893</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001888399901640248</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0007030343140426165</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0007030343140426165</v>
-      </c>
+        <v>0.0001489824472092893</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>38.86707355554678</v>
+        <v>43.12816627980739</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[12.675312544068916, 65.05883456702465]</t>
+          <t>[17.479204640889236, 68.77712791872554]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.004525458792056902</v>
+        <v>0.00147786389081217</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004525458792056902</v>
+        <v>0.00147786389081217</v>
       </c>
       <c r="P3" t="n">
-        <v>2.056658253701426</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3270791789938858, 2.7862373284089657]</t>
+          <t>[1.8050792624229635, 2.912026824048197]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>9.373189608918864e-07</v>
+        <v>4.965938771306355e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>9.373189608918864e-07</v>
+        <v>4.965938771306355e-11</v>
       </c>
       <c r="T3" t="n">
-        <v>47.87919110330442</v>
+        <v>54.40816028959679</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[33.37982171385194, 62.378560492756904]</t>
+          <t>[41.108779458973544, 67.70754112022004]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.362543821161523e-08</v>
+        <v>1.547508787780316e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>3.362543821161523e-08</v>
+        <v>1.547508787780316e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>14.7987987987988</v>
+        <v>14.17897897897905</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.24424424424424</v>
+        <v>12.17937937937944</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.35335335335336</v>
+        <v>16.17857857857866</v>
       </c>
     </row>
     <row r="4">
@@ -761,73 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001912418536416105</v>
+        <v>0.0001054566030317394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001912418536416105</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.009680995536788806</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.009680995536788806</v>
-      </c>
+        <v>0.0001054566030317394</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>37.50472895389199</v>
+        <v>48.76194892093193</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[11.162759720584368, 63.846698187199614]</t>
+          <t>[20.758093063301956, 76.7658047785619]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.006273080906055384</v>
+        <v>0.001039601822234726</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006273080906055384</v>
+        <v>0.001039601822234726</v>
       </c>
       <c r="P4" t="n">
-        <v>2.572395185822273</v>
+        <v>2.534658337130504</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.8805529598065034, 3.2642374118380424]</t>
+          <t>[1.9686056067539637, 3.100711067507044]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.931151460965452e-09</v>
+        <v>1.192357323986926e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>1.931151460965452e-09</v>
+        <v>1.192357323986926e-11</v>
       </c>
       <c r="T4" t="n">
-        <v>56.1261500574043</v>
+        <v>65.42034685529447</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.655275576280374, 70.59702453852822]</t>
+          <t>[50.601048963316856, 80.23964474727208]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.485363357455753e-10</v>
+        <v>1.80526704696149e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>6.485363357455753e-10</v>
+        <v>1.80526704696149e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>12.99299299299299</v>
+        <v>13.54274274274281</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.57057057057057</v>
+        <v>11.49769769769775</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.41541541541541</v>
+        <v>15.58778778778787</v>
       </c>
     </row>
     <row r="5">
@@ -851,73 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0003410248289880125</v>
+        <v>0.0001867125272460024</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003410248289880125</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5845104513583419</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5845104513583419</v>
-      </c>
+        <v>0.0001867125272460024</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>42.62279883054553</v>
+        <v>43.12449572550016</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[19.27329027017754, 65.97230739091353]</t>
+          <t>[18.29395831129939, 67.95503313970093]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.000627685800024036</v>
+        <v>0.001067744288064443</v>
       </c>
       <c r="O5" t="n">
-        <v>0.000627685800024036</v>
+        <v>0.001067744288064443</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.018947895341543</v>
+        <v>2.685605731897581</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.723369070921236, -2.31452671976185]</t>
+          <t>[2.0440793041375027, 3.3271321596576593]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.225197969276451e-11</v>
+        <v>8.184541933076162e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>4.225197969276451e-11</v>
+        <v>8.184541933076162e-11</v>
       </c>
       <c r="T5" t="n">
-        <v>58.42106281062149</v>
+        <v>57.52252675444397</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.134743654201415, 72.70738196704157]</t>
+          <t>[43.81796536263684, 71.2270881462511]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.565549911930475e-10</v>
+        <v>7.60314033954046e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.565549911930475e-10</v>
+        <v>7.60314033954046e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>10.57057057057057</v>
+        <v>12.99739739739746</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.104104104104106</v>
+        <v>10.67967967967973</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.03703703703703</v>
+        <v>15.31511511511519</v>
       </c>
     </row>
     <row r="6">
@@ -941,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.69000000000042</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.982212707243082e-05</v>
+        <v>3.180872512309474e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>3.982212707243082e-05</v>
+        <v>3.180872512309474e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>52.73830807943239</v>
+        <v>56.93847069741037</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[26.86213817890777, 78.614477979957]</t>
+          <t>[30.140841124727842, 83.7361002700929]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0001680132856138883</v>
+        <v>9.670134496841953e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001680132856138883</v>
+        <v>9.670134496841953e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>2.899447874484274</v>
+        <v>-2.993789996213697</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.320816194543811, 3.4780795544247365]</t>
+          <t>[-3.5724216761541596, -2.415158316273234]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.894662370385049e-13</v>
+        <v>1.407762795224698e-13</v>
       </c>
       <c r="S6" t="n">
-        <v>3.894662370385049e-13</v>
+        <v>1.407762795224698e-13</v>
       </c>
       <c r="T6" t="n">
-        <v>71.31001424970292</v>
+        <v>60.73344416594846</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[56.62143089384324, 85.9985976055626]</t>
+          <t>[45.1618478808123, 76.30504045108461]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.045608044591972e-12</v>
+        <v>5.598086438851624e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>1.045608044591972e-12</v>
+        <v>5.598086438851624e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>13.29651651651674</v>
+        <v>11.77373373373394</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.02276276276295</v>
+        <v>9.4981381381383</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.57027027027054</v>
+        <v>14.04932932932957</v>
       </c>
     </row>
     <row r="7">
@@ -1027,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.69000000000042</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001319474139096499</v>
+        <v>5.457402676267709e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001319474139096499</v>
+        <v>5.457402676267709e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>52.52700522177441</v>
+        <v>49.96518875122966</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[24.86500337313943, 80.18900707040939]</t>
+          <t>[24.1589604308368, 75.77141707162252]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0004007714991238753</v>
+        <v>0.0003182831573089739</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0004007714991238753</v>
+        <v>0.0003182831573089739</v>
       </c>
       <c r="P7" t="n">
-        <v>2.974921571867812</v>
+        <v>2.673026782333658</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.371131992799503, 3.5787111509361207]</t>
+          <t>[2.132131951084964, 3.213921613582351]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.608047442568932e-13</v>
+        <v>6.019629239517599e-13</v>
       </c>
       <c r="S7" t="n">
-        <v>6.608047442568932e-13</v>
+        <v>6.019629239517599e-13</v>
       </c>
       <c r="T7" t="n">
-        <v>59.50530416724568</v>
+        <v>59.881047491349</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.7244227401106, 75.28618559438075]</t>
+          <t>[45.60202472280634, 74.16007025989165]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.349655720517262e-09</v>
+        <v>7.792433365239049e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>1.349655720517262e-09</v>
+        <v>7.792433365239049e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>12.99993993994016</v>
+        <v>14.19773773773798</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.62732732732751</v>
+        <v>12.07055055055076</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.37255255255282</v>
+        <v>16.32492492492521</v>
       </c>
     </row>
     <row r="8">
@@ -1113,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.69000000000042</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003328840570210101</v>
+        <v>2.878362712732674e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003328840570210101</v>
+        <v>2.878362712732674e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>42.30006773236263</v>
+        <v>67.36977336435301</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[13.234835407829038, 71.36530005689623]</t>
+          <t>[36.90982293713486, 97.82972379157115]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.005289701498068622</v>
+        <v>5.511280350734005e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005289701498068622</v>
+        <v>5.511280350734005e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>2.912026824048196</v>
+        <v>2.761079429281119</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.094395102393195, 3.729658545703198]</t>
+          <t>[2.283079345852041, 3.2390795127101972]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5.642311950992962e-09</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="S8" t="n">
-        <v>5.642311950992962e-09</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="T8" t="n">
-        <v>58.37279476423916</v>
+        <v>76.51159062687294</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[41.82785391741224, 74.91773561106608]</t>
+          <t>[60.25280331565635, 92.77037793808954]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.096496057457102e-09</v>
+        <v>2.712496893764182e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>7.096496057457102e-09</v>
+        <v>2.712496893764182e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>13.24708708708731</v>
+        <v>13.85145145145169</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.03417417417434</v>
+        <v>11.97161161161181</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.46000000000028</v>
+        <v>15.73129129129156</v>
       </c>
     </row>
     <row r="9">
@@ -1199,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.69000000000042</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>8.621976173572854e-06</v>
+        <v>2.031950315806164e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>8.621976173572854e-06</v>
+        <v>2.031950315806164e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>57.27743595286707</v>
+        <v>50.78674854922161</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[28.79859785170143, 85.7562740540327]</t>
+          <t>[24.8706499796879, 76.70284711875532]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.000199076144605792</v>
+        <v>0.0002750120206851392</v>
       </c>
       <c r="O9" t="n">
-        <v>0.000199076144605792</v>
+        <v>0.0002750120206851392</v>
       </c>
       <c r="P9" t="n">
-        <v>2.333395144107734</v>
+        <v>2.534658337130504</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.8553950606786556, 2.8113952275368126]</t>
+          <t>[2.0189214050096567, 3.050395269251351]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.817391261572993e-13</v>
+        <v>7.149836278586008e-13</v>
       </c>
       <c r="S9" t="n">
-        <v>8.817391261572993e-13</v>
+        <v>7.149836278586008e-13</v>
       </c>
       <c r="T9" t="n">
-        <v>75.45295088164715</v>
+        <v>59.30913132689908</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[60.61737816796055, 90.28852359533376]</t>
+          <t>[45.59645652390488, 73.02180612989329]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.433608869978343e-13</v>
+        <v>3.254752023451601e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.433608869978343e-13</v>
+        <v>3.254752023451601e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>15.52084084084111</v>
+        <v>14.74190190190215</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.64252252252275</v>
+        <v>12.71365365365387</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.39915915915946</v>
+        <v>16.77015015015044</v>
       </c>
     </row>
     <row r="10">
@@ -1269,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1285,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.69000000000042</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.278237908248659e-05</v>
+        <v>0.1086401905313621</v>
       </c>
       <c r="I10" t="n">
-        <v>2.278237908248659e-05</v>
+        <v>0.1086401905313621</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>60.48600577093592</v>
+        <v>28.75021341454422</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[30.244837739410315, 90.72717380246152]</t>
+          <t>[-2.535457827154019, 60.03588465624246]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0002134816420458208</v>
+        <v>0.07075779097806101</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0002134816420458208</v>
+        <v>0.07075779097806101</v>
       </c>
       <c r="P10" t="n">
-        <v>2.119553001521041</v>
+        <v>3.125868966634889</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.6038160694001933, 2.6352899336418885]</t>
+          <t>[1.6541318676558872, 4.597606065613891]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.364968138517497e-10</v>
+        <v>9.721559032715987e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.364968138517497e-10</v>
+        <v>9.721559032715987e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>63.16950542219755</v>
+        <v>70.57930305219675</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[46.545555347638434, 79.79345549675665]</t>
+          <t>[51.899833734733775, 89.25877236965972]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.10643516570974e-09</v>
+        <v>1.280512806900447e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>1.10643516570974e-09</v>
+        <v>1.280512806900447e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>16.36114114114142</v>
+        <v>12.41683683683705</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.33453453453478</v>
+        <v>6.628908908909024</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.38774774774807</v>
+        <v>18.20476476476507</v>
       </c>
     </row>
     <row r="11">
@@ -1371,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.69000000000042</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007955063531688289</v>
+        <v>1.480762386596446e-06</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0007955063531688289</v>
+        <v>1.480762386596446e-06</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>53.13673858752052</v>
+        <v>51.71831229112601</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[16.94355972694818, 89.32991744809286]</t>
+          <t>[28.104897598104984, 75.33172698414704]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.00493396630749543</v>
+        <v>6.338790017923479e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00493396630749543</v>
+        <v>6.338790017923479e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>2.207605648468503</v>
+        <v>2.144710900648888</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.5786581702723481, 2.8365531266646578]</t>
+          <t>[1.6792897667837332, 2.6101320345140424]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>8.03804067750491e-09</v>
+        <v>5.101030708942744e-12</v>
       </c>
       <c r="S11" t="n">
-        <v>8.03804067750491e-09</v>
+        <v>5.101030708942744e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>72.22239529531593</v>
+        <v>66.06246362795214</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[53.598480825769684, 90.84630976486218]</t>
+          <t>[53.799750337257166, 78.32517691864712]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>6.512732575458813e-10</v>
+        <v>3.796962744218035e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>6.512732575458813e-10</v>
+        <v>3.796962744218035e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>16.01513513513541</v>
+        <v>16.27545545545573</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5436636636639</v>
+        <v>14.44508508508533</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.48660660660692</v>
+        <v>18.10582582582614</v>
       </c>
     </row>
     <row r="12">
@@ -1457,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.69000000000042</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>5.738323242332477e-05</v>
+        <v>0.0009972944510225901</v>
       </c>
       <c r="I12" t="n">
-        <v>5.738323242332477e-05</v>
+        <v>0.0009972944510225901</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>51.62411878688288</v>
+        <v>41.19550202970267</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[22.58158684765587, 80.66665072610989]</t>
+          <t>[13.683256926341521, 68.7077471330638]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0008374991573700807</v>
+        <v>0.004203843981452016</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0008374991573700807</v>
+        <v>0.004203843981452016</v>
       </c>
       <c r="P12" t="n">
-        <v>2.119553001521041</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.5660792207084242, 2.6730267823336575]</t>
+          <t>[1.6667108172198102, 2.92460577361212]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>9.045129090168302e-10</v>
+        <v>3.077471610879456e-09</v>
       </c>
       <c r="S12" t="n">
-        <v>9.045129090168302e-10</v>
+        <v>3.077471610879456e-09</v>
       </c>
       <c r="T12" t="n">
-        <v>47.9809949382835</v>
+        <v>68.99183616362319</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[32.968799208525056, 62.99319066804195]</t>
+          <t>[54.31053835552112, 83.67313397172526]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.987197642693843e-08</v>
+        <v>2.829514400559674e-12</v>
       </c>
       <c r="W12" t="n">
-        <v>6.987197642693843e-08</v>
+        <v>2.829514400559674e-12</v>
       </c>
       <c r="X12" t="n">
-        <v>16.36114114114142</v>
+        <v>15.68182182182209</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.18624624624649</v>
+        <v>13.20834834834857</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.53603603603636</v>
+        <v>18.15529529529561</v>
       </c>
     </row>
     <row r="13">
@@ -1543,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.69000000000042</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>7.42185693198838e-05</v>
+        <v>0.000898331497574012</v>
       </c>
       <c r="I13" t="n">
-        <v>7.42185693198838e-05</v>
+        <v>0.000898331497574012</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>46.56776880799469</v>
+        <v>38.32290866627157</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[25.625217327387844, 67.51032028860153]</t>
+          <t>[12.98858083221156, 63.657236500331585]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>5.1022483644525e-05</v>
+        <v>0.003862318069458359</v>
       </c>
       <c r="O13" t="n">
-        <v>5.1022483644525e-05</v>
+        <v>0.003862318069458359</v>
       </c>
       <c r="P13" t="n">
-        <v>1.591237119836271</v>
+        <v>1.943447707626118</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.9748685912040393, 2.207605648468503]</t>
+          <t>[1.2516054816103468, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.718438163964223e-06</v>
+        <v>1.002907303648826e-06</v>
       </c>
       <c r="S13" t="n">
-        <v>4.718438163964223e-06</v>
+        <v>1.002907303648826e-06</v>
       </c>
       <c r="T13" t="n">
-        <v>65.75273610225001</v>
+        <v>55.9873712612691</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[51.94221420904762, 79.5632579954524]</t>
+          <t>[42.34894453338762, 69.62579798915058]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.902700219602593e-12</v>
+        <v>1.408035910088756e-10</v>
       </c>
       <c r="W13" t="n">
-        <v>1.902700219602593e-12</v>
+        <v>1.408035910088756e-10</v>
       </c>
       <c r="X13" t="n">
-        <v>18.43717717717749</v>
+        <v>17.06696696696726</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.01513513513541</v>
+        <v>14.34614614614639</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.85921921921958</v>
+        <v>19.78778778778813</v>
       </c>
     </row>
     <row r="14">
@@ -1629,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.69000000000042</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002303742582019264</v>
+        <v>0.009586434979355407</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002303742582019264</v>
+        <v>0.009586434979355407</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>38.2934716691858</v>
+        <v>34.18732246180392</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[12.74280790406393, 63.84413543430767]</t>
+          <t>[7.246289520153084, 61.12835540345475]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.004172090758335578</v>
+        <v>0.01404129131567688</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004172090758335578</v>
+        <v>0.01404129131567688</v>
       </c>
       <c r="P14" t="n">
-        <v>1.754763464167272</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.9497106920761933, 2.559816236258351]</t>
+          <t>[0.32076321388003937, 2.333395144107734]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.785998617564459e-05</v>
+        <v>0.01089673634977539</v>
       </c>
       <c r="S14" t="n">
-        <v>6.785998617564459e-05</v>
+        <v>0.01089673634977539</v>
       </c>
       <c r="T14" t="n">
-        <v>61.4867125652187</v>
+        <v>53.70601942745121</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.67293094267262, 76.30049418776477]</t>
+          <t>[38.39251982733143, 69.019519027571]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.038267249953151e-10</v>
+        <v>8.199656731378013e-09</v>
       </c>
       <c r="W14" t="n">
-        <v>1.038267249953151e-10</v>
+        <v>8.199656731378013e-09</v>
       </c>
       <c r="X14" t="n">
-        <v>17.7945945945949</v>
+        <v>19.4909709709713</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.63111111111136</v>
+        <v>15.53341341341368</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.95807807807844</v>
+        <v>23.44852852852893</v>
       </c>
     </row>
   </sheetData>
